--- a/projects.xlsx
+++ b/projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артем\PycharmProjects\SKAMEYKA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PycharmProjects\SKAMEYKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F48C4CD-ECC9-4A98-8AC1-3D8BA2C5BD9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D49FA05-B4BD-4AF9-8811-EA9F10225CBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="705" windowWidth="17460" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,18 +408,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -465,9 +465,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -488,7 +488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -511,7 +511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
